--- a/data/supersite_area_HD_SD_DRAFT_2024_02_06.xlsx
+++ b/data/supersite_area_HD_SD_DRAFT_2024_02_06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/blueT7/bcdp/data/supersiteDB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3033A655-C3FF-7C43-A5D2-98F9F278F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66854423-1D55-1C4A-80C9-58D8691F5515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="500" windowWidth="28680" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas, SD, HD at Supersite" sheetId="1" r:id="rId1"/>
@@ -22,349 +22,322 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>supersite</t>
   </si>
   <si>
-    <t>areas</t>
-  </si>
-  <si>
-    <t>SDs</t>
-  </si>
-  <si>
-    <t>HDs</t>
-  </si>
-  <si>
-    <t>PCTs</t>
+    <t>area</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>pct</t>
   </si>
   <si>
     <t xml:space="preserve">Allenspark Fire Station </t>
   </si>
   <si>
-    <t>['MT-03']</t>
-  </si>
-  <si>
-    <t>['15']</t>
-  </si>
-  <si>
-    <t>['49']</t>
-  </si>
-  <si>
-    <t>['914']</t>
+    <t>MT-03</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>914</t>
   </si>
   <si>
     <t>Altona MS</t>
   </si>
   <si>
-    <t>['LM-02', 'LM-03']</t>
-  </si>
-  <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['11']</t>
-  </si>
-  <si>
-    <t>['605', '606', '607', '608', '609', '610', '611', '614', '615', '616', '624', '625', '630', '631']</t>
+    <t>LM-02,LM-03</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>605,606,607,608,609,610,611,614,615,616,624,625,630,631</t>
   </si>
   <si>
     <t>Burlington Elementary</t>
   </si>
   <si>
-    <t>['LM-01']</t>
-  </si>
-  <si>
-    <t>['600', '601', '602', '603', '604', '612', '613']</t>
+    <t>LM-01</t>
+  </si>
+  <si>
+    <t>600,601,602,603,604,612,613</t>
   </si>
   <si>
     <t>Casey MS</t>
   </si>
   <si>
-    <t>['BO-08', 'BO-07', 'MT-02']</t>
-  </si>
-  <si>
-    <t>['18', '15']</t>
-  </si>
-  <si>
-    <t>['10', '49']</t>
-  </si>
-  <si>
-    <t>['810', '817', '818', '820', '821', '822', '823', '824', '825', '826', '827', '910']</t>
+    <t>BO-08,BO-07,MT-02</t>
+  </si>
+  <si>
+    <t>18,15</t>
+  </si>
+  <si>
+    <t>10,49</t>
+  </si>
+  <si>
+    <t>810,817,818,820,821,822,823,824,825,826,827,910</t>
   </si>
   <si>
     <t>Centaurus HS</t>
   </si>
   <si>
-    <t>['LF-01', 'LF-02']</t>
-  </si>
-  <si>
-    <t>['17', '18']</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '310', '311', '312', '313', '314', '315', '316', '500', '501', '502']</t>
+    <t>LF-01,LF-02</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,500,501,502</t>
   </si>
   <si>
     <t>Centennial MS</t>
   </si>
   <si>
-    <t>['BO-10', 'BO-09', 'MT-02']</t>
-  </si>
-  <si>
-    <t>['803', '804', '805', '806', '807', '811', '812', '813', '814', '815', '816', '911', '912']</t>
+    <t>BO-10,BO-09,MT-02</t>
+  </si>
+  <si>
+    <t>803,804,805,806,807,811,812,813,814,815,816,911,912</t>
   </si>
   <si>
     <t>Eldorado K8</t>
   </si>
   <si>
-    <t>['SU-01']</t>
-  </si>
-  <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['49', '12']</t>
-  </si>
-  <si>
-    <t>['003', '100', '101', '102', '103', '104', '105', '106']</t>
-  </si>
-  <si>
-    <t>Erie MS</t>
-  </si>
-  <si>
-    <t>['ER-01']</t>
-  </si>
-  <si>
-    <t>['19']</t>
-  </si>
-  <si>
-    <t>['400', '401', '402', '403', '404', '405', '406', '407', '408']</t>
+    <t>SU-01</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>49,12</t>
+  </si>
+  <si>
+    <t>003,100,101,102,103,104,105,106</t>
+  </si>
+  <si>
+    <t>Erie Elementary</t>
+  </si>
+  <si>
+    <t>ER-01</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>400,401,402,403,404,405,406,407,408</t>
   </si>
   <si>
     <t>Gold Hill School</t>
   </si>
   <si>
-    <t>['MT-02']</t>
-  </si>
-  <si>
-    <t>['909']</t>
+    <t>MT-02</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>Horizon K-8</t>
+  </si>
+  <si>
+    <t>BO-04,BO-03</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>840,842,848</t>
   </si>
   <si>
     <t>Jamestown School</t>
   </si>
   <si>
-    <t>['913']</t>
+    <t>913</t>
   </si>
   <si>
     <t>Longs Peak MS</t>
   </si>
   <si>
-    <t>['LM-07', 'LM-06']</t>
-  </si>
-  <si>
-    <t>['17', '15']</t>
-  </si>
-  <si>
-    <t>['11', '49']</t>
-  </si>
-  <si>
-    <t>['617', '626', '627', '628', '629', '632', '641', '642', '643', '644', '645', '646', '647', '648', '649', '703', '704', '705']</t>
+    <t>LM-07,LM-06</t>
+  </si>
+  <si>
+    <t>17,15</t>
+  </si>
+  <si>
+    <t>11,49</t>
+  </si>
+  <si>
+    <t>617,626,627,628,629,632,641,642,643,644,645,646,647,648,649,703,704,705</t>
   </si>
   <si>
     <t>Louisville MS</t>
   </si>
   <si>
-    <t>['LV-01', 'LV-02']</t>
-  </si>
-  <si>
-    <t>['200', '201', '202', '203', '204', '205', '206', '207', '208', '209', '210', '211', '212']</t>
+    <t>LV-01,LV-02</t>
+  </si>
+  <si>
+    <t>200,201,202,203,204,205,206,207,208,209,210,211,212</t>
   </si>
   <si>
     <t>Lyons Middle Senior</t>
   </si>
   <si>
-    <t>['12', '49']</t>
-  </si>
-  <si>
-    <t>['700', '701', '702', '915', '916']</t>
+    <t>12,49</t>
+  </si>
+  <si>
+    <t>700,701,702,915,916</t>
   </si>
   <si>
     <t>Nederland HS</t>
   </si>
   <si>
-    <t>['MT-01']</t>
-  </si>
-  <si>
-    <t>['901', '902', '903', '904', '905', '907']</t>
-  </si>
-  <si>
-    <t>New Horizon</t>
-  </si>
-  <si>
-    <t>['BO-04', 'BO-03']</t>
-  </si>
-  <si>
-    <t>['10']</t>
-  </si>
-  <si>
-    <t>['840', '842', '848']</t>
+    <t>MT-01</t>
+  </si>
+  <si>
+    <t>901,902,903,904,905,907</t>
   </si>
   <si>
     <t>New Vista</t>
   </si>
   <si>
-    <t>['BO-05']</t>
-  </si>
-  <si>
-    <t>['49', '10']</t>
-  </si>
-  <si>
-    <t>['828', '829', '831', '832', '833']</t>
+    <t>BO-05</t>
+  </si>
+  <si>
+    <t>49,10</t>
+  </si>
+  <si>
+    <t>828,829,831,832,833</t>
   </si>
   <si>
     <t>Niwot HS</t>
   </si>
   <si>
-    <t>['BO-11', 'GN-01', 'BO-10']</t>
-  </si>
-  <si>
-    <t>['12', '10']</t>
-  </si>
-  <si>
-    <t>['503', '504', '505', '506', '507', '508', '509', '510', '800', '801', '802', '808', '809', '819']</t>
+    <t>BO-11,GN-01,BO-10</t>
+  </si>
+  <si>
+    <t>12,10</t>
+  </si>
+  <si>
+    <t>503,504,505,506,507,508,509,510,800,801,802,808,809,819</t>
   </si>
   <si>
     <t>Platt MS</t>
   </si>
   <si>
-    <t>['BO-01', 'BO-04']</t>
-  </si>
-  <si>
-    <t>['15', '18']</t>
-  </si>
-  <si>
-    <t>['004', '834', '835', '836', '837', '838', '839', '841', '849']</t>
+    <t>BO-01,BO-04</t>
+  </si>
+  <si>
+    <t>15,18</t>
+  </si>
+  <si>
+    <t>004,834,835,836,837,838,839,841,849</t>
   </si>
   <si>
     <t>Southern Hills MS</t>
   </si>
   <si>
-    <t>['BO-02', 'BO-03', 'BO-01']</t>
-  </si>
-  <si>
-    <t>['830', '843', '844', '845', '846', '847', '850', '851', '852', '853', '854', '855', '856', '857', '900', '906']</t>
+    <t>BO-02,BO-03,BO-01</t>
+  </si>
+  <si>
+    <t>830,843,844,845,846,847,850,851,852,853,854,855,856,857,900,906</t>
   </si>
   <si>
     <t>Timberline K-8</t>
   </si>
   <si>
-    <t>['LM-04', 'LM-05']</t>
-  </si>
-  <si>
-    <t>['15', '17']</t>
-  </si>
-  <si>
-    <t>['19', '11']</t>
-  </si>
-  <si>
-    <t>['002', '618', '619', '620', '621', '622', '623', '633', '634', '635', '636', '637', '638', '639', '640', '650', '651']</t>
+    <t>LM-04,LM-05</t>
+  </si>
+  <si>
+    <t>15,17</t>
+  </si>
+  <si>
+    <t>19,11</t>
+  </si>
+  <si>
+    <t>002,618,619,620,621,622,623,633,634,635,636,637,638,639,640,650,651</t>
   </si>
   <si>
     <t>Ward Town Hall</t>
   </si>
   <si>
-    <t>['908']</t>
+    <t>908</t>
   </si>
   <si>
     <t>HD</t>
   </si>
   <si>
-    <t>supersites</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>['Niwot HS', 'Centennial MS', 'Casey MS', 'New Vista', 'Southern Hills MS', 'Platt MS', 'New Horizon']</t>
-  </si>
-  <si>
-    <t>['800', '801', '802', '803', '806', '807', '808', '809', '810', '811', '812', '813', '816', '817', '818', '819', '820', '821', '822', '823', '824', '825', '826', '829', '830', '831', '832', '833', '834', '835', '836', '837', '838', '839', '840', '841', '842', '843', '846', '847', '848', '849', '850', '851']</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>['Burlington Elementary', 'Altona MS', 'Longs Peak MS', 'Timberline K-8']</t>
-  </si>
-  <si>
-    <t>['600', '601', '602', '603', '604', '605', '606', '607', '608', '609', '610', '611', '612', '613', '614', '615', '616', '617', '618', '622', '623', '624', '625', '626', '627', '628', '629', '630', '631', '632', '633', '634', '638', '639', '640', '641', '642', '643', '644', '645', '646', '647', '648', '649', '650', '651', '703']</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>['Platt MS', 'Eldorado K8', 'Louisville MS', 'Centaurus HS', 'Niwot HS', 'Lyons Middle Senior']</t>
-  </si>
-  <si>
-    <t>['004', '100', '101', '102', '103', '104', '105', '106', '200', '201', '202', '203', '204', '205', '206', '207', '208', '209', '210', '211', '212', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '310', '311', '312', '313', '314', '315', '316', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '510', '700']</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>['Timberline K-8', 'Erie MS']</t>
-  </si>
-  <si>
-    <t>['002', '400', '401', '402', '403', '404', '405', '406', '407', '408', '619', '620', '621', '635', '636', '637']</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>['Eldorado K8', 'Lyons Middle Senior', 'Longs Peak MS', 'Centennial MS', 'Casey MS', 'New Vista', 'Southern Hills MS', 'Nederland HS', 'Ward Town Hall', 'Gold Hill School', 'Jamestown School', 'Allenspark Fire Station ']</t>
-  </si>
-  <si>
-    <t>['003', '701', '702', '704', '705', '804', '805', '814', '815', '827', '828', '844', '845', '852', '853', '854', '855', '856', '857', '900', '901', '902', '903', '904', '905', '906', '907', '908', '909', '910', '911', '912', '913', '914', '915', '916']</t>
+    <t>Niwot HS,Centennial MS,Casey MS,New Vista,Southern Hills MS,Platt MS,Horizon K-8</t>
+  </si>
+  <si>
+    <t>800,801,802,803,806,807,808,809,810,811,812,813,816,817,818,819,820,821,822,823,824,825,826,829,830,831,832,833,834,835,836,837,838,839,840,841,842,843,846,847,848,849,850,851</t>
+  </si>
+  <si>
+    <t>Burlington Elementary,Altona MS,Longs Peak MS,Timberline K-8</t>
+  </si>
+  <si>
+    <t>600,601,602,603,604,605,606,607,608,609,610,611,612,613,614,615,616,617,618,622,623,624,625,626,627,628,629,630,631,632,633,634,638,639,640,641,642,643,644,645,646,647,648,649,650,651,703</t>
+  </si>
+  <si>
+    <t>Platt MS,Eldorado K8,Louisville MS,Centaurus HS,Niwot HS,Lyons Middle Senior</t>
+  </si>
+  <si>
+    <t>004,100,101,102,103,104,105,106,200,201,202,203,204,205,206,207,208,209,210,211,212,300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,500,501,502,503,504,505,506,507,508,509,510,700</t>
+  </si>
+  <si>
+    <t>Timberline K-8,Erie Elementary</t>
+  </si>
+  <si>
+    <t>002,400,401,402,403,404,405,406,407,408,619,620,621,635,636,637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldorado K8,Lyons Middle Senior,Longs Peak MS,Centennial MS,Casey MS,New Vista,Southern Hills MS,Nederland HS,Ward Town Hall,Gold Hill School,Jamestown School,Allenspark Fire Station </t>
+  </si>
+  <si>
+    <t>003,701,702,704,705,804,805,814,815,827,828,844,845,852,853,854,855,856,857,900,901,902,903,904,905,906,907,908,909,910,911,912,913,914,915,916</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>['Timberline K-8', 'Platt MS', 'Lyons Middle Senior', 'Longs Peak MS', 'Southern Hills MS', 'Nederland HS', 'Ward Town Hall', 'Gold Hill School', 'Casey MS', 'Centennial MS', 'Jamestown School', 'Allenspark Fire Station ']</t>
-  </si>
-  <si>
-    <t>['002', '004', '700', '701', '702', '703', '704', '705', '900', '901', '902', '903', '904', '905', '906', '907', '908', '909', '910', '911', '912', '913', '914', '915', '916']</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>['Centaurus HS', 'Erie MS', 'Burlington Elementary', 'Altona MS', 'Longs Peak MS', 'Timberline K-8']</t>
-  </si>
-  <si>
-    <t>['300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '310', '311', '312', '313', '314', '315', '316', '400', '401', '402', '403', '404', '405', '406', '407', '408', '600', '601', '602', '603', '604', '605', '606', '607', '608', '609', '610', '611', '612', '613', '614', '615', '616', '617', '618', '619', '620', '621', '622', '623', '624', '625', '626', '627', '628', '629', '630', '631', '632', '633', '634', '635', '636', '637', '638', '639', '640', '641', '642', '643', '644', '645', '646', '647', '648', '649', '650', '651']</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>['Eldorado K8', 'Louisville MS', 'Centaurus HS', 'Niwot HS', 'Centennial MS', 'Casey MS', 'New Vista', 'Southern Hills MS', 'Platt MS', 'New Horizon']</t>
-  </si>
-  <si>
-    <t>['003', '100', '101', '102', '103', '104', '105', '106', '200', '201', '202', '203', '204', '205', '206', '207', '208', '209', '210', '211', '212', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '510', '800', '801', '802', '803', '804', '805', '806', '807', '808', '809', '810', '811', '812', '813', '814', '815', '816', '817', '818', '819', '820', '821', '822', '823', '824', '825', '826', '827', '828', '829', '830', '831', '832', '833', '834', '835', '836', '837', '838', '839', '840', '841', '842', '843', '844', '845', '846', '847', '848', '849', '850', '851', '852', '853', '854', '855', '856', '857']</t>
+    <t xml:space="preserve">Timberline K-8,Platt MS,Lyons Middle Senior,Longs Peak MS,Southern Hills MS,Nederland HS,Ward Town Hall,Gold Hill School,Casey MS,Centennial MS,Jamestown School,Allenspark Fire Station </t>
+  </si>
+  <si>
+    <t>002,004,700,701,702,703,704,705,900,901,902,903,904,905,906,907,908,909,910,911,912,913,914,915,916</t>
+  </si>
+  <si>
+    <t>Centaurus HS,Erie Elementary,Burlington Elementary,Altona MS,Longs Peak MS,Timberline K-8</t>
+  </si>
+  <si>
+    <t>300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,400,401,402,403,404,405,406,407,408,600,601,602,603,604,605,606,607,608,609,610,611,612,613,614,615,616,617,618,619,620,621,622,623,624,625,626,627,628,629,630,631,632,633,634,635,636,637,638,639,640,641,642,643,644,645,646,647,648,649,650,651</t>
+  </si>
+  <si>
+    <t>Eldorado K8,Louisville MS,Centaurus HS,Niwot HS,Centennial MS,Casey MS,New Vista,Southern Hills MS,Platt MS,Horizon K-8</t>
+  </si>
+  <si>
+    <t>003,100,101,102,103,104,105,106,200,201,202,203,204,205,206,207,208,209,210,211,212,500,501,502,503,504,505,506,507,508,509,510,800,801,802,803,804,805,806,807,808,809,810,811,812,813,814,815,816,817,818,819,820,821,822,823,824,825,826,827,828,829,830,831,832,833,834,835,836,837,838,839,840,841,842,843,844,845,846,847,848,849,850,851,852,853,854,855,856,857</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,11 +346,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -389,23 +361,22 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -428,48 +399,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,390 +847,389 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="2"/>
-    <col min="5" max="5" width="93.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="22" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="5"/>
+    <col min="5" max="5" width="74.1640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1173,81 +1243,81 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="10"/>
-    <col min="2" max="2" width="78.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="86.83203125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="8.83203125" style="11"/>
+    <col min="2" max="2" width="74.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="76" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C6" s="16" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1259,60 +1329,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
-    <col min="2" max="2" width="66.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
